--- a/biology/Zoologie/Integripalpia/Integripalpia.xlsx
+++ b/biology/Zoologie/Integripalpia/Integripalpia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Integripalpia est un sous-ordre d'insectes de l'ordre des Trichoptera. Les trichoptères regroupent des insectes apparentés de près aux lépidoptères (mites et papillons), mais adaptés pour la vie en eau douce dans leur stade larvaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des super-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>super-famille Leptoceroidea
 super-famille Limnephiloidea
